--- a/KM5c_data/DSDP_Site_593.xlsx
+++ b/KM5c_data/DSDP_Site_593.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>15.0279146</v>
+        <v>15.49</v>
       </c>
       <c r="Q2">
-        <v>0.6160149399999995</v>
+        <v>0.1586896209733055</v>
       </c>
       <c r="R2">
-        <v>-0.07771633000000122</v>
+        <v>-0.5350416490266952</v>
       </c>
       <c r="S2">
         <v>0.6439295400000002</v>
